--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H2">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I2">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J2">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N2">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O2">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P2">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q2">
-        <v>0.1678274909768888</v>
+        <v>0.3153670151866667</v>
       </c>
       <c r="R2">
-        <v>1.510447418792</v>
+        <v>2.83830313668</v>
       </c>
       <c r="S2">
-        <v>0.0001081633740375064</v>
+        <v>0.0002255615930141081</v>
       </c>
       <c r="T2">
-        <v>0.0001115039038846918</v>
+        <v>0.0002308917291430827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H3">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I3">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J3">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P3">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q3">
-        <v>0.1322979233848889</v>
+        <v>0.06164001621333333</v>
       </c>
       <c r="R3">
-        <v>1.190681310464</v>
+        <v>0.55476014592</v>
       </c>
       <c r="S3">
-        <v>8.526487340167451E-05</v>
+        <v>4.408710987820118E-05</v>
       </c>
       <c r="T3">
-        <v>8.789820337172525E-05</v>
+        <v>4.512891089602419E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H4">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I4">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J4">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N4">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O4">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P4">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q4">
-        <v>115.8143893448235</v>
+        <v>73.94587192173334</v>
       </c>
       <c r="R4">
-        <v>1042.329504103412</v>
+        <v>665.5128472956001</v>
       </c>
       <c r="S4">
-        <v>0.0746413775282775</v>
+        <v>0.0528886911575417</v>
       </c>
       <c r="T4">
-        <v>0.07694661025319027</v>
+        <v>0.05413847805515137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H5">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I5">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J5">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N5">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P5">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q5">
-        <v>0.7126414036919999</v>
+        <v>0.66375122456</v>
       </c>
       <c r="R5">
-        <v>4.275848422151999</v>
+        <v>3.98250734736</v>
       </c>
       <c r="S5">
-        <v>0.000459291253497713</v>
+        <v>0.0004747382458124251</v>
       </c>
       <c r="T5">
-        <v>0.0003156507042598369</v>
+        <v>0.0003239710360298463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H6">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I6">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J6">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N6">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O6">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P6">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q6">
-        <v>161.7789070551677</v>
+        <v>54.72608158682667</v>
       </c>
       <c r="R6">
-        <v>1456.01016349651</v>
+        <v>492.5347342814401</v>
       </c>
       <c r="S6">
-        <v>0.1042651137387067</v>
+        <v>0.03914202040070094</v>
       </c>
       <c r="T6">
-        <v>0.1074852492750071</v>
+        <v>0.04006696641793266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>13.850705</v>
       </c>
       <c r="I7">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J7">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N7">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O7">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P7">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q7">
-        <v>0.6644583319977777</v>
+        <v>2.679854409973889</v>
       </c>
       <c r="R7">
-        <v>5.980124987979999</v>
+        <v>24.118689689765</v>
       </c>
       <c r="S7">
-        <v>0.0004282376783319147</v>
+        <v>0.001916726228967871</v>
       </c>
       <c r="T7">
-        <v>0.0004414634191049519</v>
+        <v>0.001962019452809113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>13.850705</v>
       </c>
       <c r="I8">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J8">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.340352</v>
       </c>
       <c r="O8">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P8">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q8">
         <v>0.5237905720177777</v>
@@ -948,10 +948,10 @@
         <v>4.714115148159999</v>
       </c>
       <c r="S8">
-        <v>0.0003375785172542451</v>
+        <v>0.0003746334592416688</v>
       </c>
       <c r="T8">
-        <v>0.0003480043302680417</v>
+        <v>0.0003834862400255937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>13.850705</v>
       </c>
       <c r="I9">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J9">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N9">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O9">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P9">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q9">
-        <v>458.529383460781</v>
+        <v>628.3604861197277</v>
       </c>
       <c r="R9">
-        <v>4126.76445114703</v>
+        <v>5655.24437507755</v>
       </c>
       <c r="S9">
-        <v>0.2955182427012833</v>
+        <v>0.4494255436079526</v>
       </c>
       <c r="T9">
-        <v>0.304645061450383</v>
+        <v>0.4600456997048242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>13.850705</v>
       </c>
       <c r="I10">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J10">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N10">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O10">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P10">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q10">
-        <v>2.82147171273</v>
+        <v>5.640274856296665</v>
       </c>
       <c r="R10">
-        <v>16.92883027638</v>
+        <v>33.84164913778</v>
       </c>
       <c r="S10">
-        <v>0.001818414244435582</v>
+        <v>0.004034123165577919</v>
       </c>
       <c r="T10">
-        <v>0.001249716236747515</v>
+        <v>0.002752967710001332</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>13.850705</v>
       </c>
       <c r="I11">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J11">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N11">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O11">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P11">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q11">
-        <v>640.5109324377804</v>
+        <v>465.0389039394022</v>
       </c>
       <c r="R11">
-        <v>5764.598391940024</v>
+        <v>4185.350135454621</v>
       </c>
       <c r="S11">
-        <v>0.4128037853459897</v>
+        <v>0.3326121976453965</v>
       </c>
       <c r="T11">
-        <v>0.4255528640267379</v>
+        <v>0.3404719944659328</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H12">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I12">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J12">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N12">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O12">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P12">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q12">
-        <v>0.08168327000600001</v>
+        <v>0.042441509209</v>
       </c>
       <c r="R12">
-        <v>0.490099620036</v>
+        <v>0.381973582881</v>
       </c>
       <c r="S12">
-        <v>5.264416476012428E-05</v>
+        <v>3.035566170875095E-05</v>
       </c>
       <c r="T12">
-        <v>3.618002205606308E-05</v>
+        <v>3.10729815637434E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H13">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I13">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J13">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.340352</v>
       </c>
       <c r="O13">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P13">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q13">
-        <v>0.064390684352</v>
+        <v>0.008295399295999999</v>
       </c>
       <c r="R13">
-        <v>0.386344106112</v>
+        <v>0.07465859366399999</v>
       </c>
       <c r="S13">
-        <v>4.149924208218952E-05</v>
+        <v>5.933161649091128E-06</v>
       </c>
       <c r="T13">
-        <v>2.852060623784078E-05</v>
+        <v>6.073365301859663E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H14">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I14">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J14">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N14">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O14">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P14">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q14">
-        <v>56.367988226291</v>
+        <v>9.951498581030002</v>
       </c>
       <c r="R14">
-        <v>338.207929357746</v>
+        <v>89.56348722927001</v>
       </c>
       <c r="S14">
-        <v>0.03632868345211494</v>
+        <v>0.007117662167319979</v>
       </c>
       <c r="T14">
-        <v>0.02496710840706194</v>
+        <v>0.007285856174841</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H15">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I15">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J15">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N15">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O15">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P15">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q15">
-        <v>0.346849493229</v>
+        <v>0.089326411302</v>
       </c>
       <c r="R15">
-        <v>1.387397972916</v>
+        <v>0.535958467812</v>
       </c>
       <c r="S15">
-        <v>0.0002235415142803642</v>
+        <v>6.388939445549347E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001024201758347639</v>
+        <v>4.359942240938365E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H16">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I16">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J16">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N16">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O16">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P16">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q16">
-        <v>78.7393654599925</v>
+        <v>7.364934770572001</v>
       </c>
       <c r="R16">
-        <v>472.436192759955</v>
+        <v>66.284412935148</v>
       </c>
       <c r="S16">
-        <v>0.05074684360798733</v>
+        <v>0.00526766065979322</v>
       </c>
       <c r="T16">
-        <v>0.0348760765676213</v>
+        <v>0.005392138182862434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,19 +1467,19 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H17">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I17">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J17">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N17">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O17">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P17">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q17">
-        <v>0.02069468872755556</v>
+        <v>0.2183942119718333</v>
       </c>
       <c r="R17">
-        <v>0.186252198548</v>
+        <v>1.310365271831</v>
       </c>
       <c r="S17">
-        <v>1.333754883898375E-05</v>
+        <v>0.0001562032298408557</v>
       </c>
       <c r="T17">
-        <v>1.374946720212086E-05</v>
+        <v>0.000106596261517015</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1529,19 +1529,19 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H18">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I18">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J18">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.340352</v>
       </c>
       <c r="O18">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P18">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q18">
-        <v>0.01631356297955555</v>
+        <v>0.04268621041066666</v>
       </c>
       <c r="R18">
-        <v>0.146822066816</v>
+        <v>0.256117262464</v>
       </c>
       <c r="S18">
-        <v>1.051395098723769E-05</v>
+        <v>3.053068062386396E-05</v>
       </c>
       <c r="T18">
-        <v>1.083866503575223E-05</v>
+        <v>2.083475751038951E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H19">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I19">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J19">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N19">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O19">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P19">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q19">
-        <v>14.28099010306422</v>
+        <v>51.20811514596168</v>
       </c>
       <c r="R19">
-        <v>128.528910927578</v>
+        <v>307.24869087577</v>
       </c>
       <c r="S19">
-        <v>0.009203975255498381</v>
+        <v>0.03662584693816557</v>
       </c>
       <c r="T19">
-        <v>0.009488231865717347</v>
+        <v>0.02499422299065486</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H20">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I20">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J20">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N20">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O20">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P20">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q20">
-        <v>0.08787530539800001</v>
+        <v>0.459653098303</v>
       </c>
       <c r="R20">
-        <v>0.527251832388</v>
+        <v>1.838612393212</v>
       </c>
       <c r="S20">
-        <v>5.663487829733973E-05</v>
+        <v>0.0003287600798254901</v>
       </c>
       <c r="T20">
-        <v>3.89226641789608E-05</v>
+        <v>0.0001495683773894522</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H21">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I21">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J21">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N21">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O21">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P21">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q21">
-        <v>19.94884213964611</v>
+        <v>37.89825469029134</v>
       </c>
       <c r="R21">
-        <v>179.539579256815</v>
+        <v>227.389528141748</v>
       </c>
       <c r="S21">
-        <v>0.01285685712993736</v>
+        <v>0.02710616611358892</v>
       </c>
       <c r="T21">
-        <v>0.01325392975609879</v>
+        <v>0.01849779914737739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.740156</v>
+      </c>
+      <c r="I22">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J22">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.5804443333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.741333</v>
+      </c>
+      <c r="O22">
+        <v>0.002431273010151717</v>
+      </c>
+      <c r="P22">
+        <v>0.002435427107574628</v>
+      </c>
+      <c r="Q22">
+        <v>0.1432064519942222</v>
+      </c>
+      <c r="R22">
+        <v>1.288858067948</v>
+      </c>
+      <c r="S22">
+        <v>0.0001024262966201319</v>
+      </c>
+      <c r="T22">
+        <v>0.0001048466825416744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.740156</v>
+      </c>
+      <c r="I23">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J23">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.340352</v>
+      </c>
+      <c r="O23">
+        <v>0.0004752041289926495</v>
+      </c>
+      <c r="P23">
+        <v>0.00047601606752829</v>
+      </c>
+      <c r="Q23">
+        <v>0.02799039721244444</v>
+      </c>
+      <c r="R23">
+        <v>0.251913574912</v>
+      </c>
+      <c r="S23">
+        <v>2.001971759982446E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.049279379442298E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.740156</v>
+      </c>
+      <c r="I24">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J24">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>136.1000366666667</v>
+      </c>
+      <c r="N24">
+        <v>408.30011</v>
+      </c>
+      <c r="O24">
+        <v>0.5700742118164518</v>
+      </c>
+      <c r="P24">
+        <v>0.5710482463260632</v>
+      </c>
+      <c r="Q24">
+        <v>33.57841957968445</v>
+      </c>
+      <c r="R24">
+        <v>302.20577621716</v>
+      </c>
+      <c r="S24">
+        <v>0.02401646794547193</v>
+      </c>
+      <c r="T24">
+        <v>0.0245839894005918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.740156</v>
+      </c>
+      <c r="I25">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J25">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>1.221658</v>
+      </c>
+      <c r="N25">
+        <v>2.443316</v>
+      </c>
+      <c r="O25">
+        <v>0.005117086949542552</v>
+      </c>
+      <c r="P25">
+        <v>0.003417220037046797</v>
+      </c>
+      <c r="Q25">
+        <v>0.3014058328826666</v>
+      </c>
+      <c r="R25">
+        <v>1.808434997296</v>
+      </c>
+      <c r="S25">
+        <v>0.0002155760638712246</v>
+      </c>
+      <c r="T25">
+        <v>0.0001471134912167826</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.740156</v>
+      </c>
+      <c r="I26">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J26">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>100.7253213333333</v>
+      </c>
+      <c r="N26">
+        <v>302.175964</v>
+      </c>
+      <c r="O26">
+        <v>0.4219022240948613</v>
+      </c>
+      <c r="P26">
+        <v>0.4226230904617871</v>
+      </c>
+      <c r="Q26">
+        <v>24.85081697893156</v>
+      </c>
+      <c r="R26">
+        <v>223.657352810384</v>
+      </c>
+      <c r="S26">
+        <v>0.01777417927538173</v>
+      </c>
+      <c r="T26">
+        <v>0.01819419224768176</v>
       </c>
     </row>
   </sheetData>
